--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3436.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3436.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.133285244394885</v>
+        <v>1.444740653038025</v>
       </c>
       <c r="B1">
-        <v>2.592929062467936</v>
+        <v>3.31209659576416</v>
       </c>
       <c r="C1">
-        <v>3.943276850176028</v>
+        <v>4.187763214111328</v>
       </c>
       <c r="D1">
-        <v>3.98876091230683</v>
+        <v>1.943168520927429</v>
       </c>
       <c r="E1">
-        <v>1.252994574364559</v>
+        <v>1.156373739242554</v>
       </c>
     </row>
   </sheetData>
